--- a/data/trans_orig/P14B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C778F062-1D1A-4F81-A973-615F6C4A34B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DD3D84-FD90-478E-A27E-A9FFFD1D8421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2F16CD0-6E54-4DE9-9E35-AFFF3A932181}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9EF61A-ECC2-489B-BEE7-EF79FE747CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población cuya mala circulación le limita en 2012 (Tasa respuesta: 6,19%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>75,01%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>56,88%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -208,16 +208,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,7%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>36,84%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>18,36%</t>
@@ -229,70 +229,70 @@
     <t>87,44%</t>
   </si>
   <si>
-    <t>51,3%</t>
+    <t>50,63%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -304,406 +304,418 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>67,19%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC1C70F-64FA-46BB-85D2-82381ECAE8B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFD38BB-8F82-4D0A-BB60-8E4875D7B2D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1866,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D8168A-B0C7-41A2-BE3B-6A03A1A5A2EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9577F0CF-9A15-4536-997C-603016297D6C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2617,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E8E47A-ECC2-4FD5-A646-8D0CF1DABEA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF28D45-99A2-4682-ACA8-66AE50591FAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2756,13 +2768,13 @@
         <v>78622</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>163</v>
@@ -2771,10 +2783,10 @@
         <v>105316</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>163</v>
@@ -2807,13 +2819,13 @@
         <v>90800</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>228</v>
@@ -2822,13 +2834,13 @@
         <v>131191</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,7 +2914,7 @@
         <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -2911,13 +2923,13 @@
         <v>39008</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -2926,13 +2938,13 @@
         <v>59346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2959,13 @@
         <v>47591</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>150</v>
@@ -2962,13 +2974,13 @@
         <v>91860</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>203</v>
@@ -2977,13 +2989,13 @@
         <v>139451</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3063,13 @@
         <v>4508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3066,13 +3078,13 @@
         <v>5170</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3081,13 +3093,13 @@
         <v>9679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3114,13 @@
         <v>6983</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -3117,13 +3129,13 @@
         <v>26489</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -3132,13 +3144,13 @@
         <v>33471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3218,13 @@
         <v>51541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -3221,13 +3233,13 @@
         <v>122801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>264</v>
@@ -3236,13 +3248,13 @@
         <v>174341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3269,13 @@
         <v>94965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>359</v>
@@ -3272,13 +3284,13 @@
         <v>209148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3287,13 +3299,13 @@
         <v>304113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B18-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30DD3D84-FD90-478E-A27E-A9FFFD1D8421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F48E391-C4AD-4695-858C-125A3D8BF6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9EF61A-ECC2-489B-BEE7-EF79FE747CD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{479BCBBE-2ACF-4789-A249-4800C7759824}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población cuya mala circulación le limita en 2012 (Tasa respuesta: 6,19%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>75,01%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>24,99%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>33,28%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>56,88%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
   </si>
   <si>
     <t>43,12%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>51,17%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -208,16 +208,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,37%</t>
+    <t>57,53%</t>
   </si>
   <si>
     <t>36,84%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
   </si>
   <si>
     <t>18,36%</t>
@@ -229,25 +229,25 @@
     <t>87,44%</t>
   </si>
   <si>
-    <t>50,63%</t>
+    <t>42,47%</t>
   </si>
   <si>
     <t>63,16%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>58,59%</t>
@@ -256,31 +256,31 @@
     <t>52,76%</t>
   </si>
   <si>
-    <t>63,72%</t>
+    <t>64,07%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>36,28%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>47,24%</t>
@@ -289,124 +289,124 @@
     <t>38,34%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya mala circulación le limita en 2015 (Tasa respuesta: 4,61%)</t>
+    <t>Población cuya mala circulación le limita en 2016 (Tasa respuesta: 4,61%)</t>
   </si>
   <si>
     <t>43,92%</t>
   </si>
   <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
   </si>
   <si>
     <t>56,08%</t>
   </si>
   <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
   </si>
   <si>
     <t>34,0%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>66,0%</t>
   </si>
   <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>29,67%</t>
@@ -415,132 +415,132 @@
     <t>26,55%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>27,23%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>53,59%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>Población cuya mala circulación le limita en 2023 (Tasa respuesta: 8,56%)</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
     <t>45,21%</t>
   </si>
   <si>
@@ -679,9 +679,6 @@
     <t>32,81%</t>
   </si>
   <si>
-    <t>42,56%</t>
-  </si>
-  <si>
     <t>36,44%</t>
   </si>
   <si>
@@ -701,9 +698,6 @@
   </si>
   <si>
     <t>63,01%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
   </si>
   <si>
     <t>67,19%</t>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFD38BB-8F82-4D0A-BB60-8E4875D7B2D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0CFFF0-86C8-4BD8-8F33-A3FF54A4B7A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9577F0CF-9A15-4536-997C-603016297D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64260B1-58CB-4B13-A92C-9CE9EB0C538B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,10 +2494,10 @@
         <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2512,13 @@
         <v>49388</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -2533,13 +2527,13 @@
         <v>134110</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -2548,13 +2542,13 @@
         <v>183498</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF28D45-99A2-4682-ACA8-66AE50591FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FC5765-D51E-4567-9888-F6D51FC3D23D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2753,13 +2747,13 @@
         <v>26695</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -2768,13 +2762,13 @@
         <v>78622</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>163</v>
@@ -2783,13 +2777,13 @@
         <v>105316</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2798,13 @@
         <v>40391</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>170</v>
@@ -2819,7 +2813,7 @@
         <v>90800</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>167</v>
@@ -3239,7 +3233,7 @@
         <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>264</v>
@@ -3248,13 +3242,13 @@
         <v>174341</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>94965</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>359</v>
@@ -3284,13 +3278,13 @@
         <v>209148</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3299,13 +3293,13 @@
         <v>304113</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
